--- a/src/main/java/com/qa/testdata/TutorialsNinjaTestData.xlsx
+++ b/src/main/java/com/qa/testdata/TutorialsNinjaTestData.xlsx
@@ -3,30 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\eclipse-workspace\VahanaAutomation24\src\main\java\com\qa\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="2175" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="2805" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Pan</t>
-  </si>
-  <si>
-    <t>ECLPS5505P</t>
-  </si>
   <si>
     <t>Email</t>
   </si>
@@ -37,7 +27,13 @@
     <t>ganesh.timande@decimal.co.in</t>
   </si>
   <si>
-    <t>Decimal@12345</t>
+    <t>Decimal@123</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>ECLPS5505P</t>
   </si>
 </sst>
 </file>
@@ -454,35 +450,35 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:Decimal@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -504,12 +500,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
